--- a/报告相关/数据字典.xlsx
+++ b/报告相关/数据字典.xlsx
@@ -16,18 +16,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>数据名</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>全局变量/局部变量</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+  <si>
+    <t>变量名/函数名</t>
+  </si>
+  <si>
+    <t>全局变量/函数</t>
+  </si>
+  <si>
+    <t>（返回）数据类型</t>
   </si>
   <si>
     <t>说明</t>
+  </si>
+  <si>
+    <t>commandCompose</t>
+  </si>
+  <si>
+    <t>全局变量</t>
+  </si>
+  <si>
+    <t>char * []</t>
+  </si>
+  <si>
+    <t>指向用“ ”分割后的命令的指针数组</t>
+  </si>
+  <si>
+    <t>prompt_global</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>前缀的信息</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>存放别名的对应关系</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>别名链表的结点</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">struct Node* </t>
+  </si>
+  <si>
+    <t>别名链表的头结点指针</t>
+  </si>
+  <si>
+    <t>currentRecord</t>
+  </si>
+  <si>
+    <t>别名链表当前结点的指针</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>shell命令解释程序的入口</t>
+  </si>
+  <si>
+    <t>shellInit</t>
+  </si>
+  <si>
+    <t>初始化常用别名</t>
+  </si>
+  <si>
+    <t>printPrefix</t>
+  </si>
+  <si>
+    <t>打印前缀</t>
+  </si>
+  <si>
+    <t>getprompt_wq</t>
+  </si>
+  <si>
+    <t>从OS获知部分前缀信息并放入存储区</t>
+  </si>
+  <si>
+    <t>getInputCommand_</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>获取输入的命令</t>
+  </si>
+  <si>
+    <t>judgeAlias_zhj</t>
+  </si>
+  <si>
+    <t>char *</t>
+  </si>
+  <si>
+    <t>判断输入有无别名，有则替换并返回替换掉的字符串</t>
+  </si>
+  <si>
+    <t>commandStrSplit</t>
+  </si>
+  <si>
+    <t>对输入的命令字符串进行并分割放入commandCompose</t>
+  </si>
+  <si>
+    <t>commandJudge</t>
+  </si>
+  <si>
+    <t>判断命令字符串中是否含有特殊关键字符 | &lt; &gt; &amp;</t>
+  </si>
+  <si>
+    <t>commandControl</t>
+  </si>
+  <si>
+    <t>命令控制器，判断命令的类型：执常规/管道/重定向/后台</t>
+  </si>
+  <si>
+    <t>commonCmd_djm</t>
+  </si>
+  <si>
+    <t>实现常规命令</t>
+  </si>
+  <si>
+    <t>commonCmd_beforeExec_search</t>
+  </si>
+  <si>
+    <t>查找并实现内建命令</t>
+  </si>
+  <si>
+    <t>pipeCmd_zhj</t>
+  </si>
+  <si>
+    <t>实现管道命令</t>
+  </si>
+  <si>
+    <t>redirectCmd_djm</t>
+  </si>
+  <si>
+    <t>实现重定向命令</t>
+  </si>
+  <si>
+    <t>backstageCmd_djm</t>
+  </si>
+  <si>
+    <t>实现后台处理命令</t>
+  </si>
+  <si>
+    <t>cd_wq</t>
+  </si>
+  <si>
+    <t>cd功能</t>
+  </si>
+  <si>
+    <t>alias_zhj</t>
+  </si>
+  <si>
+    <t>实现alias命令</t>
+  </si>
+  <si>
+    <t>printAlia_zhj</t>
+  </si>
+  <si>
+    <t>打印所有别名关系</t>
+  </si>
+  <si>
+    <t>aliasInsert_zhj</t>
+  </si>
+  <si>
+    <t>插入一条别名关系</t>
+  </si>
+  <si>
+    <t>checkAlias_zhj</t>
+  </si>
+  <si>
+    <t>遍历链表查找是否存在要查找的别名关系，如果存在返回对应的别名</t>
+  </si>
+  <si>
+    <t>unalias_zhj</t>
+  </si>
+  <si>
+    <t>实现unalias命令(删除别名关系)</t>
+  </si>
+  <si>
+    <t>showHistory_wq</t>
+  </si>
+  <si>
+    <t>查询历史记录</t>
+  </si>
+  <si>
+    <t>error_wq</t>
+  </si>
+  <si>
+    <t>报错提示功能</t>
+  </si>
+  <si>
+    <t>help_wq</t>
+  </si>
+  <si>
+    <t>打印帮助信息</t>
   </si>
 </sst>
 </file>
@@ -37,10 +238,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,10 +251,9 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -69,6 +269,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -76,8 +291,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,22 +351,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,29 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,45 +405,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -240,187 +433,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,20 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +668,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,202 +739,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +901,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1063,21 +1259,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="25.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="31.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="19.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="38.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:4">
+    <row r="1" ht="17.4" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,135 +1288,416 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" ht="15.6" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" ht="15.6" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" ht="15.6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" ht="15.6" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" ht="15.6" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" ht="15.6" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" ht="15.6" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" ht="15.6" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="31.2" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="31.2" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" ht="15.6" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="31.2" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" ht="15.6" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" ht="15.6" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" ht="15.6" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" ht="31.2" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2:C22 C23:C1048576">
-      <formula1>"全局变量,局部变量"</formula1>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B17 B18 B22 B2:B3 B4:B5 B6:B7 B8:B10 B12:B14 B15:B16 B19:B21 B23:B27 B28:B30 B31:B1048576">
+      <formula1>"函数,全局变量"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
